--- a/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/10,25/27,10,25 Ост КИ Ташкент/Ташкент 04,11.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/10,25/27,10,25 Ост КИ Ташкент/Ташкент 04,11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37232C8D-9E0D-4E77-AAFA-9655491EEDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFDC1D-B737-40CF-8B56-4ECA4310A43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,18 +457,24 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -479,6 +485,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -494,11 +503,17 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -514,6 +529,9 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -528,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,18 +554,24 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -573,41 +597,56 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,6 +661,9 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>280</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -633,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
